--- a/report/comparisons/1067x783/debug/performance.xlsx
+++ b/report/comparisons/1067x783/debug/performance.xlsx
@@ -118,13 +118,13 @@
     <t>Transform (Final)</t>
   </si>
   <si>
-    <t>GPU</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
-    <t>CPU (16x16)</t>
+    <t>GPU (16x16)</t>
+  </si>
+  <si>
+    <t>CPU</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,23 +570,23 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>1247599</v>
+        <v>3403290</v>
       </c>
       <c r="C4" s="1">
-        <v>1243083</v>
+        <v>4865186</v>
       </c>
       <c r="D4" s="1">
-        <v>1738593</v>
+        <v>3416838</v>
       </c>
       <c r="E4" s="1">
-        <v>1241852</v>
+        <v>3517417</v>
       </c>
       <c r="F4" s="1">
-        <v>1377738</v>
+        <v>3403701</v>
       </c>
       <c r="G4" s="1">
         <f>AVERAGE(B4:F4)</f>
-        <v>1369773</v>
+        <v>3721286.4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -594,23 +594,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1238567</v>
+        <v>3677935</v>
       </c>
       <c r="C5" s="1">
-        <v>1322726</v>
+        <v>3512081</v>
       </c>
       <c r="D5" s="1">
-        <v>1306715</v>
+        <v>4842607</v>
       </c>
       <c r="E5" s="1">
-        <v>1241442</v>
+        <v>3519881</v>
       </c>
       <c r="F5" s="1">
-        <v>1248831</v>
+        <v>4145117</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G9" si="0">AVERAGE(B5:F5)</f>
-        <v>1271656.2</v>
+        <v>3939524.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -618,23 +618,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>5211263</v>
+        <v>15989717</v>
       </c>
       <c r="C6" s="1">
-        <v>6492115</v>
+        <v>12576163</v>
       </c>
       <c r="D6" s="1">
-        <v>7914190</v>
+        <v>16325531</v>
       </c>
       <c r="E6" s="1">
-        <v>9100209</v>
+        <v>13109031</v>
       </c>
       <c r="F6" s="1">
-        <v>5719909</v>
+        <v>15268417</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>6887537.2000000002</v>
+        <v>14653771.800000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -642,23 +642,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>1577665</v>
+        <v>9041093</v>
       </c>
       <c r="C7" s="1">
-        <v>1561244</v>
+        <v>7543891</v>
       </c>
       <c r="D7" s="1">
-        <v>2265713</v>
+        <v>6154249</v>
       </c>
       <c r="E7" s="1">
-        <v>1593265</v>
+        <v>6242513</v>
       </c>
       <c r="F7" s="1">
-        <v>1516907</v>
+        <v>6070091</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>1702958.8</v>
+        <v>7010367.4000000004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -666,23 +666,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>2241903</v>
+        <v>4870523</v>
       </c>
       <c r="C8" s="1">
-        <v>2218091</v>
+        <v>5003534</v>
       </c>
       <c r="D8" s="1">
-        <v>2278439</v>
+        <v>4931692</v>
       </c>
       <c r="E8" s="1">
-        <v>3148351</v>
+        <v>4956323</v>
       </c>
       <c r="F8" s="1">
-        <v>2229997</v>
+        <v>5040893</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>2423356.2000000002</v>
+        <v>4960593</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -690,23 +690,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>4713701</v>
+        <v>14144387</v>
       </c>
       <c r="C9" s="1">
-        <v>5095904</v>
+        <v>15736010</v>
       </c>
       <c r="D9" s="1">
-        <v>7320563</v>
+        <v>12618859</v>
       </c>
       <c r="E9" s="1">
-        <v>4833164</v>
+        <v>13573340</v>
       </c>
       <c r="F9" s="1">
-        <v>7817305</v>
+        <v>12772807</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>5956127.4000000004</v>
+        <v>13769080.6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -738,13 +738,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>2085792</v>
+        <v>4685759</v>
       </c>
       <c r="C17" s="1">
-        <v>1557248</v>
+        <v>3513824</v>
       </c>
       <c r="D17" s="1">
-        <v>1886144</v>
+        <v>4135616</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -752,13 +752,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2079136</v>
+        <v>4692577</v>
       </c>
       <c r="C18" s="1">
-        <v>1540448</v>
+        <v>3507968</v>
       </c>
       <c r="D18" s="1">
-        <v>1877728</v>
+        <v>4138176</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -766,13 +766,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2273249</v>
+        <v>8667680</v>
       </c>
       <c r="C19" s="1">
-        <v>1676320</v>
+        <v>6015264</v>
       </c>
       <c r="D19" s="1">
-        <v>3188928</v>
+        <v>7772512</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -780,13 +780,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>3212672</v>
+        <v>7705791</v>
       </c>
       <c r="C20" s="1">
-        <v>2408000</v>
+        <v>6886144</v>
       </c>
       <c r="D20" s="1">
-        <v>2591264</v>
+        <v>12247328</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -794,13 +794,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>408512</v>
+        <v>1048320</v>
       </c>
       <c r="C21" s="1">
-        <v>247008</v>
+        <v>660448</v>
       </c>
       <c r="D21" s="1">
-        <v>280000</v>
+        <v>751104</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -808,13 +808,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>98625</v>
+        <v>239745</v>
       </c>
       <c r="C22" s="1">
-        <v>99168</v>
+        <v>239520</v>
       </c>
       <c r="D22" s="1">
-        <v>99584</v>
+        <v>240864</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -822,13 +822,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2272960</v>
+        <v>8665311</v>
       </c>
       <c r="C23" s="1">
-        <v>1678656</v>
+        <v>6018784</v>
       </c>
       <c r="D23" s="1">
-        <v>3181312</v>
+        <v>7749600</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -838,13 +838,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -852,14 +852,14 @@
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>1369773</v>
+        <v>3721286.4</v>
       </c>
       <c r="C29" s="1">
-        <v>1557248</v>
+        <v>3513824</v>
       </c>
       <c r="D29" s="1">
         <f>B29/C29</f>
-        <v>0.8796113400049318</v>
+        <v>1.0590417732931416</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -867,14 +867,14 @@
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>1271656.2</v>
+        <v>3939524.2</v>
       </c>
       <c r="C30" s="1">
-        <v>1540448</v>
+        <v>3507968</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ref="D30:D34" si="1">B30/C30</f>
-        <v>0.82551063067367414</v>
+        <v>1.1230217037327592</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -882,14 +882,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>6887537.2000000002</v>
+        <v>14653771.800000001</v>
       </c>
       <c r="C31" s="1">
-        <v>1676320</v>
+        <v>6015264</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>4.1087245871909897</v>
+        <v>2.4360978670262852</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -897,14 +897,14 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>1702958.8</v>
+        <v>7010367.4000000004</v>
       </c>
       <c r="C32" s="1">
-        <v>2408000</v>
+        <v>6886144</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>0.70720880398671093</v>
+        <v>1.0180396169467267</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -912,15 +912,15 @@
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>2423356.2000000002</v>
+        <v>4960593</v>
       </c>
       <c r="C33" s="1">
-        <f ca="1">SUM(C33:C34)</f>
-        <v>346176</v>
+        <f>C21+C22</f>
+        <v>899968</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8796113400049318</v>
+        <f t="shared" si="1"/>
+        <v>5.5119659810126587</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -928,14 +928,14 @@
         <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>5956127.4000000004</v>
+        <v>13769080.6</v>
       </c>
       <c r="C34" s="1">
-        <v>1678656</v>
+        <v>6018784</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>3.5481524505318545</v>
+        <v>2.2876847881565445</v>
       </c>
     </row>
   </sheetData>
